--- a/TTILB/Test.xlsx
+++ b/TTILB/Test.xlsx
@@ -32,6 +32,66 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>TCLU2076723</t>
+  </si>
+  <si>
+    <t>MSC MAXINE</t>
+  </si>
+  <si>
+    <t>915S</t>
+  </si>
+  <si>
+    <t>9076905723-01</t>
+  </si>
+  <si>
+    <t>MEDUHA232154</t>
+  </si>
+  <si>
+    <t>TGHU1029583</t>
+  </si>
+  <si>
+    <t>9076905727-01</t>
+  </si>
+  <si>
+    <t>MEDU6506473</t>
+  </si>
+  <si>
+    <t>9076905729-01</t>
+  </si>
+  <si>
+    <t>TCLU2117165</t>
+  </si>
+  <si>
+    <t>9076905722-01</t>
+  </si>
+  <si>
+    <t>INBU3838439</t>
+  </si>
+  <si>
+    <t>9076905721-01</t>
+  </si>
+  <si>
+    <t>MRKU4562870</t>
+  </si>
+  <si>
+    <t>MAERSK STRALSUND</t>
+  </si>
+  <si>
+    <t>915N</t>
+  </si>
+  <si>
+    <t>9074905881-01</t>
+  </si>
+  <si>
+    <t>SUDUN9SHA026370X</t>
+  </si>
+  <si>
+    <t>MEDU1260258</t>
+  </si>
+  <si>
+    <t>9076905720-01</t>
+  </si>
+  <si>
     <t>MEDU2708440</t>
   </si>
   <si>
@@ -47,6 +107,12 @@
     <t>MEDUHO406191</t>
   </si>
   <si>
+    <t>MEDU1836240</t>
+  </si>
+  <si>
+    <t>9076905725-01</t>
+  </si>
+  <si>
     <t>SUDU6626881</t>
   </si>
   <si>
@@ -60,72 +126,6 @@
   </si>
   <si>
     <t>SAFM581319233</t>
-  </si>
-  <si>
-    <t>MRKU4562870</t>
-  </si>
-  <si>
-    <t>MAERSK STRALSUND</t>
-  </si>
-  <si>
-    <t>915N</t>
-  </si>
-  <si>
-    <t>9074905881-01</t>
-  </si>
-  <si>
-    <t>SUDUN9SHA026370X</t>
-  </si>
-  <si>
-    <t>TCLU2076723</t>
-  </si>
-  <si>
-    <t>MSC MAXINE</t>
-  </si>
-  <si>
-    <t>915S</t>
-  </si>
-  <si>
-    <t>9076905723-01</t>
-  </si>
-  <si>
-    <t>MEDUHA232154</t>
-  </si>
-  <si>
-    <t>TCLU2117165</t>
-  </si>
-  <si>
-    <t>9076905722-01</t>
-  </si>
-  <si>
-    <t>INBU3838439</t>
-  </si>
-  <si>
-    <t>9076905721-01</t>
-  </si>
-  <si>
-    <t>TGHU1029583</t>
-  </si>
-  <si>
-    <t>9076905727-01</t>
-  </si>
-  <si>
-    <t>MEDU6506473</t>
-  </si>
-  <si>
-    <t>9076905729-01</t>
-  </si>
-  <si>
-    <t>MEDU1836240</t>
-  </si>
-  <si>
-    <t>9076905725-01</t>
-  </si>
-  <si>
-    <t>MEDU1260258</t>
-  </si>
-  <si>
-    <t>9076905720-01</t>
   </si>
   <si>
     <t>TGHU2503064</t>
@@ -231,161 +231,161 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -393,17 +393,17 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -411,17 +411,17 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TTILB/Test.xlsx
+++ b/TTILB/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,6 +32,36 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>MEDU2708440</t>
+  </si>
+  <si>
+    <t>MSC CLEA</t>
+  </si>
+  <si>
+    <t>MC913A</t>
+  </si>
+  <si>
+    <t>9074905928-01</t>
+  </si>
+  <si>
+    <t>MEDUHO406191</t>
+  </si>
+  <si>
+    <t>SUDU6626881</t>
+  </si>
+  <si>
+    <t>ZIM NINGBO</t>
+  </si>
+  <si>
+    <t>955N</t>
+  </si>
+  <si>
+    <t>9074905391-01</t>
+  </si>
+  <si>
+    <t>SAFM581319233</t>
+  </si>
+  <si>
     <t>TCLU2076723</t>
   </si>
   <si>
@@ -47,6 +77,18 @@
     <t>MEDUHA232154</t>
   </si>
   <si>
+    <t>TCLU2117165</t>
+  </si>
+  <si>
+    <t>9076905722-01</t>
+  </si>
+  <si>
+    <t>INBU3838439</t>
+  </si>
+  <si>
+    <t>9076905721-01</t>
+  </si>
+  <si>
     <t>TGHU1029583</t>
   </si>
   <si>
@@ -59,73 +101,16 @@
     <t>9076905729-01</t>
   </si>
   <si>
-    <t>TCLU2117165</t>
-  </si>
-  <si>
-    <t>9076905722-01</t>
-  </si>
-  <si>
-    <t>INBU3838439</t>
-  </si>
-  <si>
-    <t>9076905721-01</t>
-  </si>
-  <si>
-    <t>MRKU4562870</t>
-  </si>
-  <si>
-    <t>MAERSK STRALSUND</t>
-  </si>
-  <si>
-    <t>915N</t>
-  </si>
-  <si>
-    <t>9074905881-01</t>
-  </si>
-  <si>
-    <t>SUDUN9SHA026370X</t>
+    <t>MEDU1836240</t>
+  </si>
+  <si>
+    <t>9076905725-01</t>
   </si>
   <si>
     <t>MEDU1260258</t>
   </si>
   <si>
     <t>9076905720-01</t>
-  </si>
-  <si>
-    <t>MEDU2708440</t>
-  </si>
-  <si>
-    <t>MSC CLEA</t>
-  </si>
-  <si>
-    <t>MC913A</t>
-  </si>
-  <si>
-    <t>9074905928-01</t>
-  </si>
-  <si>
-    <t>MEDUHO406191</t>
-  </si>
-  <si>
-    <t>MEDU1836240</t>
-  </si>
-  <si>
-    <t>9076905725-01</t>
-  </si>
-  <si>
-    <t>SUDU6626881</t>
-  </si>
-  <si>
-    <t>ZIM NINGBO</t>
-  </si>
-  <si>
-    <t>955N</t>
-  </si>
-  <si>
-    <t>9074905391-01</t>
-  </si>
-  <si>
-    <t>SAFM581319233</t>
   </si>
   <si>
     <t>TGHU2503064</t>
@@ -182,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -231,125 +216,125 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -357,17 +342,17 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -375,53 +360,35 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
